--- a/gjermundgaraba/evidence.xlsx
+++ b/gjermundgaraba/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -124,34 +124,61 @@
     <t xml:space="preserve">ClassID</t>
   </si>
   <si>
-    <t xml:space="preserve">tx hash on irisnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class id you issued</t>
+    <t xml:space="preserve">F825DECA01B64E8B822363B0FE8D4F322F2FD4197DEEFEA2501C97F71C352D0A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empowerChainPlasticCreditNftClass</t>
   </si>
   <si>
     <t xml:space="preserve">NFTID</t>
   </si>
   <si>
-    <t xml:space="preserve">nft id you minted</t>
+    <t xml:space="preserve">6EB2451AA2ED242503F09AF1C2772EFE477032960A286419D73D8DC79101CAB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcrdnft1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6939CE9C1225ECF8A56BAA14A786874C62D66C652825BB04164AF9191D0E1C2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcrdnft2</t>
   </si>
   <si>
     <t xml:space="preserve">ChainID</t>
   </si>
   <si>
-    <t xml:space="preserve">ibc class on dest chain</t>
+    <t xml:space="preserve">3628F6B9B74DD57088FC05AE8B9F41C0232577A305063AA84169F0FFE9699190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stars1qhq79s63x7dr0qhapvzvw44kstl7cq3d3hzr74chew3kk3xsee4skwhl7y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elgafar-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A54836ED9FF4CF5942133D8F99BFD750276CC12848B28B272DF1681DD4400D3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/B8510B3D90945C5DBF8E1B26419DC3BDC44FEF0D89DD552E6D647BB24E211F26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gon-flixnet-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8EEA3D30B3582CF6FFDADC72DF78751D5F57BA2A7188DBDD10B7F92F661DE57E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elgafar-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BADFF25749CF23AFE0705306E2F737D55208DD9E25775AA9A0AB9B0509E36464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc class on chain</t>
   </si>
   <si>
     <t xml:space="preserve">nft id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dest chain id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx hash on dest chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibc class on chain</t>
   </si>
   <si>
     <t xml:space="preserve">tx hash on that chain</t>
@@ -176,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -205,6 +232,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -268,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -289,7 +322,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,11 +413,11 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
@@ -487,7 +528,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -502,10 +543,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +571,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -545,10 +586,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +614,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -588,10 +629,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +657,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -631,10 +672,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +700,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -669,25 +710,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -708,11 +749,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R32" activeCellId="0" sqref="R32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -722,25 +763,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +806,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -775,25 +816,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +859,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -828,25 +869,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +912,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -881,25 +922,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +965,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -934,25 +975,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -974,10 +1015,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
   </cols>
@@ -990,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1020,7 +1061,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1030,25 +1071,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1114,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1083,25 +1124,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1167,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1134,13 +1175,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
+      <c r="A2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1165,21 +1206,21 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1204,21 +1245,21 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1243,21 +1284,21 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1276,13 +1317,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1299,15 +1340,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1329,10 +1381,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1349,35 +1401,91 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1385,10 +1493,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1405,102 +1513,46 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1519,21 +1571,21 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1610,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1573,10 +1625,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1601,7 +1653,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1616,10 +1668,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/gjermundgaraba/evidence.xlsx
+++ b/gjermundgaraba/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">stars1qhq79s63x7dr0qhapvzvw44kstl7cq3d3hzr74chew3kk3xsee4skwhl7y</t>
   </si>
   <si>
-    <t xml:space="preserve">Elgafar-1</t>
+    <t xml:space="preserve">elgafar-1</t>
   </si>
   <si>
     <t xml:space="preserve">A54836ED9FF4CF5942133D8F99BFD750276CC12848B28B272DF1681DD4400D3F</t>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">8EEA3D30B3582CF6FFDADC72DF78751D5F57BA2A7188DBDD10B7F92F661DE57E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elgafar-1</t>
   </si>
   <si>
     <t xml:space="preserve">BADFF25749CF23AFE0705306E2F737D55208DD9E25775AA9A0AB9B0509E36464</t>
@@ -317,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -346,12 +343,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -409,7 +400,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,10 +418,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,10 +501,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B7 A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
@@ -600,10 +587,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="B7 B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -618,24 +605,67 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -643,10 +673,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="B7 E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -661,24 +691,24 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -686,10 +716,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="B7 E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -704,176 +734,133 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="B7 B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.31"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B7 B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.31"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B7 B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -881,259 +868,259 @@
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="B7 B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B7 B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="B7 B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B7 B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>31</v>
@@ -1141,15 +1128,15 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>31</v>
@@ -1174,10 +1161,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B7 B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
   </cols>
@@ -1217,10 +1204,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B7 B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1235,114 +1222,114 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>31</v>
@@ -1350,57 +1337,57 @@
     </row>
     <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7 A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1422,10 +1409,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="B7 D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1433,13 +1420,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>86</v>
+      <c r="A2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1461,10 +1448,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="1" sqref="B7 F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1472,13 +1459,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>86</v>
+      <c r="A2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1500,10 +1487,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="B7 E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1511,13 +1498,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>86</v>
+      <c r="A2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1539,10 +1526,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B7 C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1599,11 +1586,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B7 C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1656,10 +1643,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B7 D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1712,10 +1699,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="B7 D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1746,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1768,10 +1755,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="B7 E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1795,7 +1782,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
@@ -1826,10 +1813,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="B7 D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1844,54 +1831,54 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="B7 C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/gjermundgaraba/evidence.xlsx
+++ b/gjermundgaraba/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t xml:space="preserve">D1BE0624F5A2E777E490AB4A23C179BCCD70F51BDB0143B5E7B85082B96C6736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF1BD8D848698E0191682B54A44E53907F41C0F24C0FDBC633E501BCE76CA950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9B0D38D1734D46EB1BD153ACA28D3AC8E162B4DBC45667E466C31796782E48E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">773DDA05B751D44A7F0790B9F9C413DEF0B46AFAC7DF04F2E838313D29B09942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1205982C049208BC3E6B91A0D09477ADAE1F79F74E5922524ED57002C3704E78</t>
   </si>
   <si>
     <t xml:space="preserve">The first Interchain NFT-Transfer TxHash</t>
@@ -501,10 +513,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
@@ -590,7 +602,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -633,7 +645,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -676,7 +688,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -719,7 +731,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -759,10 +771,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.31"/>
   </cols>
@@ -829,7 +841,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -896,7 +908,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -963,7 +975,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1030,7 +1042,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1097,7 +1109,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1164,7 +1176,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
   </cols>
@@ -1207,7 +1219,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1290,7 +1302,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1370,10 +1382,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1409,10 +1421,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1421,12 +1433,12 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1447,11 +1459,11 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1460,12 +1472,12 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1502,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1499,12 +1511,12 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1541,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1586,11 +1598,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1646,7 +1658,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1702,7 +1714,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1758,7 +1770,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1816,7 +1828,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1859,7 +1871,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>

--- a/gjermundgaraba/evidence.xlsx
+++ b/gjermundgaraba/evidence.xlsx
@@ -33,6 +33,7 @@
     <sheet name="B2" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="B5" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="B6" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="B7" sheetId="26" state="visible" r:id="rId27"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -313,10 +314,22 @@
     <t xml:space="preserve">1205982C049208BC3E6B91A0D09477ADAE1F79F74E5922524ED57002C3704E78</t>
   </si>
   <si>
-    <t xml:space="preserve">The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Internal Transfer TxHash on IRISnet</t>
+    <t xml:space="preserve">937AAA8286FE3F63F4068F031152B40479E51A88FC0149C0CA2FBF71F56C66DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978DA9347EB5C977D8E29C4EA1FFC1420EEDD54A04A37F0193673A75661E2FAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6EDCEF9B1E511D37CF46A549999953A48810E9469B589080B29946CA1F3084EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D04A931C5A5E9C2F6DC9EC0D221D4BAAF9730B1489A6AC0E45FF3FA43A9C430D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1D5D331DE1D6ED5FB14C5D92C1CDFB0BF58905902E4C25F0BA406F59BBEBDB55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F7505BEEFF35EA8E0B1AE112AF3BAD7CDE6645A0253AD26BCA88116B22CBD85</t>
   </si>
 </sst>
 </file>
@@ -516,7 +529,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
@@ -602,7 +615,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -645,7 +658,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -688,7 +701,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -731,7 +744,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -774,7 +787,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.31"/>
   </cols>
@@ -841,7 +854,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -908,7 +921,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -975,7 +988,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1042,7 +1055,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1109,7 +1122,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1176,7 +1189,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
   </cols>
@@ -1219,7 +1232,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1302,7 +1315,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1385,7 +1398,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1424,7 +1437,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1460,10 +1473,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1499,10 +1512,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1511,12 +1524,12 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1530,6 +1543,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1541,7 +1593,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1602,7 +1654,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1658,7 +1710,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1714,7 +1766,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
@@ -1770,7 +1822,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1828,7 +1880,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
@@ -1871,7 +1923,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="13.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
   </cols>
